--- a/Afkir/Rumus Perhitungan Afkir.xlsx
+++ b/Afkir/Rumus Perhitungan Afkir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="28+24" sheetId="1" r:id="rId1"/>
@@ -1433,16 +1433,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -1451,6 +1441,16 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2088,17 +2088,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,11 +2339,12 @@
         <v>33</v>
       </c>
       <c r="C3" s="3">
-        <v>148.28</v>
+        <f>4.62 + 5.38 + 6.76 + 13.4 + 16.16 + 16.75 + 11.25 + 13.85 + 16.8 + 17.4 + 21.54 + 10.12 + 4.3 + 10.44 + 14.96 + 23.6 + 13.68 + 21.9 + 7.26 + 9.54 + 21 + 3.9 + 13.3 + 7.04 + 6.22</f>
+        <v>311.17</v>
       </c>
       <c r="D3" s="4">
         <f>C3*1000/20.1406</f>
-        <v>7362.2434286962653</v>
+        <v>15449.887292334886</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2373,7 +2374,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="4">
         <f>C3-C5</f>
-        <v>75.483609425737072</v>
+        <v>158.40460443085112</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>23</v>
@@ -2398,7 +2399,7 @@
       </c>
       <c r="C5" s="4">
         <f>D3*9.8878/1000</f>
-        <v>72.796390574262929</v>
+        <v>152.76539556914889</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2427,7 +2428,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="4">
         <f>($C$5-$C$8-$C$9-$C$10)*0.6</f>
-        <v>5.9678345233011871</v>
+        <v>12.523678639166665</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>39</v>
@@ -2456,7 +2457,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="4">
         <f>($C$5-$C$8-$C$9-$C$10)*0.4</f>
-        <v>3.9785563488674587</v>
+        <v>8.3491190927777765</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>57</v>
@@ -2481,7 +2482,7 @@
       </c>
       <c r="C8" s="4">
         <f>$D$3*1.9509/1000*2</f>
-        <v>28.72600141008709</v>
+        <v>60.282370237232257</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -2509,7 +2510,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="4">
         <f>$D$3*1.9509/1000*2</f>
-        <v>28.72600141008709</v>
+        <v>60.282370237232257</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -2535,7 +2536,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="4">
         <f>$D$3*0.7332/1000</f>
-        <v>5.3979968819201014</v>
+        <v>11.327857362739937</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -2566,7 +2567,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="4">
         <f>((C8+C9+C10)-(C13+C14+C15))*0.95</f>
-        <v>11.546611292612935</v>
+        <v>24.230907984369868</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>47</v>
@@ -2587,7 +2588,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="4">
         <f>((C8+C9+C10)-(C13+C14+C15))*0.05</f>
-        <v>0.60771638382173343</v>
+        <v>1.2753109465457826</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>48</v>
@@ -2605,7 +2606,7 @@
       </c>
       <c r="C13" s="4">
         <f>$D$3*1.596/1000*2</f>
-        <v>23.500281024398479</v>
+        <v>49.31604023713296</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -2626,7 +2627,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="4">
         <f>$D$3*1.596/1000*2</f>
-        <v>23.500281024398479</v>
+        <v>49.31604023713296</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -2641,7 +2642,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="4">
         <f>$D$3*0.5019/1000</f>
-        <v>3.6951099768626556</v>
+        <v>7.75429843202288</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -3084,14 +3085,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3102,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/Afkir/Rumus Perhitungan Afkir.xlsx
+++ b/Afkir/Rumus Perhitungan Afkir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="28+24" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
   <si>
     <t>Kabel</t>
   </si>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +392,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,11 +770,11 @@
         <v>33</v>
       </c>
       <c r="C3" s="3">
-        <v>84.86</v>
+        <v>152.63999999999999</v>
       </c>
       <c r="D3" s="4">
         <f>C3*1000/26.744</f>
-        <v>3173.0481603350286</v>
+        <v>5707.4483996410409</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -799,7 +802,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="4">
         <f>C3-C5</f>
-        <v>48.573973152856716</v>
+        <v>87.371332336224924</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>23</v>
@@ -824,7 +827,7 @@
       </c>
       <c r="C5" s="4">
         <f>D3*11.4357/1000</f>
-        <v>36.286026847143283</v>
+        <v>65.268667663775062</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -853,7 +856,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="4">
         <f>C5-C7</f>
-        <v>6.3007217319772657</v>
+        <v>11.333280287167227</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>24</v>
@@ -878,7 +881,7 @@
       </c>
       <c r="C7" s="4">
         <f>D3*9.45/1000</f>
-        <v>29.985305115166017</v>
+        <v>53.935387376607835</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -905,7 +908,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="4">
         <f>($C$7-$C$10-$C$11-$C$12-$C$13)*0.42</f>
-        <v>1.5709634519892308</v>
+        <v>2.8077564104098105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>25</v>
@@ -931,7 +934,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="4">
         <f>($C$7-$C$10-$C$11-$C$12-$C$13)*0.58</f>
-        <v>2.1694257194136997</v>
+        <v>3.8773779000897384</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>26</v>
@@ -953,8 +956,8 @@
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <f>$D$3*2.9077/1000</f>
-        <v>9.2262721358061626</v>
+        <f>$D$3*2.9152/1000</f>
+        <v>16.638353574633562</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -980,7 +983,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="4">
         <f>$D$3*2.9152/1000</f>
-        <v>9.2500699970086746</v>
+        <v>16.638353574633562</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -1006,7 +1009,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="4">
         <f>$D$3*1.2238/1000</f>
-        <v>3.8831763386180076</v>
+        <v>6.9847753514807058</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1032,7 +1035,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="4">
         <f>$D$3*1.2245/1000</f>
-        <v>3.8853974723302422</v>
+        <v>6.9887705653604542</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1063,7 +1066,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="4">
         <f>C10-C18</f>
-        <v>2.8928680077774453</v>
+        <v>5.2462865689500457</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>27</v>
@@ -1093,7 +1096,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="4">
         <f t="shared" ref="F15:F17" si="1">C11-C19</f>
-        <v>2.9166658689799574</v>
+        <v>5.2462865689500457</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
@@ -1121,7 +1124,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>1.3288725695483095</v>
+        <v>2.3902793897696677</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>29</v>
@@ -1149,7 +1152,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>1.3310937032605441</v>
+        <v>2.394274603649416</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>30</v>
@@ -1174,7 +1177,7 @@
       </c>
       <c r="C18" s="4">
         <f>$D$3*1.996/1000</f>
-        <v>6.3334041280287172</v>
+        <v>11.392067005683517</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -1189,7 +1192,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="4">
         <f>$D$3*1.996/1000</f>
-        <v>6.3334041280287172</v>
+        <v>11.392067005683517</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1207,7 +1210,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="4">
         <f>$D$3*0.805/1000</f>
-        <v>2.5543037690696981</v>
+        <v>4.5944959617110381</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -1238,7 +1241,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="4">
         <f>$D$3*0.805/1000</f>
-        <v>2.5543037690696981</v>
+        <v>4.5944959617110381</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -1252,11 +1255,11 @@
         <v>8</v>
       </c>
       <c r="J21" s="4">
-        <v>4.6500000000000004</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="K21" s="4">
-        <f>J21*1000/2.9077</f>
-        <v>1599.2021185129138</v>
+        <f>J21*1000/2.9152</f>
+        <v>6966.9319429198686</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>9</v>
@@ -1267,11 +1270,11 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
       <c r="J22" s="4">
-        <v>4.6500000000000004</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="K22" s="4">
         <f>J22*1000/2.9152</f>
-        <v>1595.0878155872667</v>
+        <v>6966.9319429198686</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>10</v>
@@ -1282,11 +1285,11 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
       <c r="J23" s="4">
-        <v>4.66</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="K23" s="4">
         <f>J23*1000/1.2238</f>
-        <v>3807.8117339434548</v>
+        <v>16595.848994933815</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>12</v>
@@ -1297,11 +1300,11 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" s="2"/>
       <c r="J24" s="4">
-        <v>4.66</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="K24" s="4">
         <f>J24*1000/1.2245</f>
-        <v>3805.6349530420584</v>
+        <v>16586.361780318497</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>11</v>
@@ -1318,7 +1321,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="4">
         <f>J21-J29</f>
-        <v>1.4579925714482247</v>
+        <v>6.4040038419319405</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>27</v>
@@ -1333,7 +1336,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="4">
         <f t="shared" ref="M26:M28" si="2">J22-J30</f>
-        <v>1.4662047200878159</v>
+        <v>6.4040038419319405</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>28</v>
@@ -1348,7 +1351,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="4">
         <f t="shared" si="2"/>
-        <v>1.594711554175519</v>
+        <v>6.9503415590782769</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>29</v>
@@ -1363,7 +1366,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="4">
         <f t="shared" si="2"/>
-        <v>1.5964638628011425</v>
+        <v>6.9579787668436079</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>30</v>
@@ -1375,7 +1378,7 @@
       </c>
       <c r="J29" s="4">
         <f>K21*1.996/1000</f>
-        <v>3.1920074285517757</v>
+        <v>13.905996158068058</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
@@ -1390,7 +1393,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="4">
         <f>K22*1.996/1000</f>
-        <v>3.1837952799121845</v>
+        <v>13.905996158068058</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
@@ -1405,7 +1408,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="4">
         <f>K23*0.805/1000</f>
-        <v>3.0652884458244811</v>
+        <v>13.359658440921722</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
@@ -1420,7 +1423,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="4">
         <f>K24*0.805/1000</f>
-        <v>3.0635361371988576</v>
+        <v>13.352021233156391</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
@@ -1433,6 +1436,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -1441,16 +1454,6 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1462,7 +1465,7 @@
   <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,11 +1534,11 @@
         <v>33</v>
       </c>
       <c r="C3" s="3">
-        <v>211.02</v>
+        <v>280.77</v>
       </c>
       <c r="D3" s="4">
         <f>C3*1000/18.008</f>
-        <v>11718.125277654377</v>
+        <v>15591.403820524212</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1544,11 +1547,11 @@
         <v>7</v>
       </c>
       <c r="J3" s="4">
-        <v>12.8</v>
+        <v>20.36</v>
       </c>
       <c r="K3" s="4">
         <f>J3*1000/9.8816</f>
-        <v>1295.3367875647668</v>
+        <v>2060.3950777202072</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1563,7 +1566,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="4">
         <f>C3-C5</f>
-        <v>95.226173256330512</v>
+        <v>126.70198400710791</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>36</v>
@@ -1576,7 +1579,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="4">
         <f>(J3-J6-J7-J8-J9)*0.6</f>
-        <v>0.85290155440414572</v>
+        <v>1.3566465349740939</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>39</v>
@@ -1588,7 +1591,7 @@
       </c>
       <c r="C5" s="4">
         <f>D3*9.8816/1000</f>
-        <v>115.7938267436695</v>
+        <v>154.06801599289207</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1602,7 +1605,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="4">
         <f>(J3-J6-J7-J8-J9)*0.4</f>
-        <v>0.56860103626943059</v>
+        <v>0.90443102331606262</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>40</v>
@@ -1617,7 +1620,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="4">
         <f>($C$5-$C$8-$C$9-$C$10-$C$11)*0.6</f>
-        <v>7.7156824078187567</v>
+        <v>10.266003931585965</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>39</v>
@@ -1628,7 +1631,7 @@
       </c>
       <c r="J6" s="4">
         <f>$K$3*3.6328/1000</f>
-        <v>4.7056994818652846</v>
+        <v>7.4850032383419682</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
@@ -1646,7 +1649,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="4">
         <f>($C$5-$C$8-$C$9-$C$10-$C$11)*0.4</f>
-        <v>5.1437882718791714</v>
+        <v>6.8440026210573111</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>40</v>
@@ -1654,7 +1657,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="4">
         <f>$K$3*3.6328/1000</f>
-        <v>4.7056994818652846</v>
+        <v>7.4850032383419682</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
@@ -1669,7 +1672,7 @@
       </c>
       <c r="C8" s="4">
         <f>$D$3*3.6328/1000</f>
-        <v>42.569605508662818</v>
+        <v>56.640451799200363</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1680,7 +1683,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="4">
         <f>$K$3*0.7593/1000</f>
-        <v>0.98354922279792745</v>
+        <v>1.5644579825129534</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
@@ -1693,7 +1696,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="4">
         <f>$D$3*3.6328/1000</f>
-        <v>42.569605508662818</v>
+        <v>56.640451799200363</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1704,7 +1707,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="4">
         <f>$K$3*0.7593/1000</f>
-        <v>0.98354922279792745</v>
+        <v>1.5644579825129534</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
@@ -1717,7 +1720,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="4">
         <f>$D$3*0.7593/1000</f>
-        <v>8.8975725233229674</v>
+        <v>11.838552920924034</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1733,7 +1736,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="4">
         <f>((J6+J7+J8+J9)-(J12+J13+J14+J15))*0.94</f>
-        <v>1.6954093264248717</v>
+        <v>2.6967604598445596</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>47</v>
@@ -1743,7 +1746,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="4">
         <f>$D$3*0.7593/1000</f>
-        <v>8.8975725233229674</v>
+        <v>11.838552920924034</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -1759,7 +1762,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="4">
         <f>((J6+J7+J8+J9)-(J12+J13+J14+J15))*0.06</f>
-        <v>0.10821761658031097</v>
+        <v>0.172133646373057</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>48</v>
@@ -1774,7 +1777,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="4">
         <f>((C8+C9+C10+C11)-(C14+C15+C16+C17))*0.94</f>
-        <v>15.337338578409573</v>
+        <v>20.406902438916038</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>47</v>
@@ -1784,7 +1787,7 @@
       </c>
       <c r="J12" s="4">
         <f>$K$3*3.194/1000</f>
-        <v>4.1373056994818649</v>
+        <v>6.5809018782383415</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
@@ -1804,7 +1807,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="4">
         <f>((C8+C9+C10+C11)-(C14+C15+C16+C17))*0.06</f>
-        <v>0.97897905819635578</v>
+        <v>1.3025682407818748</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>48</v>
@@ -1812,7 +1815,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="4">
         <f>$K$3*3.194/1000</f>
-        <v>4.1373056994818649</v>
+        <v>6.5809018782383415</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
@@ -1829,7 +1832,7 @@
       </c>
       <c r="C14" s="4">
         <f>$D$3*3.194/1000</f>
-        <v>37.427692136828085</v>
+        <v>49.798943802754337</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1842,7 +1845,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="4">
         <f>$K$3*0.5019/1000</f>
-        <v>0.65012953367875648</v>
+        <v>1.0341122895077719</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
@@ -1857,7 +1860,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="4">
         <f>$D$3*3.194/1000</f>
-        <v>37.427692136828085</v>
+        <v>49.798943802754337</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1870,7 +1873,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="4">
         <f>$K$3*0.5019/1000</f>
-        <v>0.65012953367875648</v>
+        <v>1.0341122895077719</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
@@ -1885,7 +1888,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="4">
         <f>$D$3*0.5019/1000</f>
-        <v>5.8813270768547321</v>
+        <v>7.8253255775211024</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1900,7 +1903,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="4">
         <f>$D$3*0.5019/1000</f>
-        <v>5.8813270768547321</v>
+        <v>7.8253255775211024</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1936,12 +1939,10 @@
       <c r="I19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="4">
-        <v>16.52</v>
-      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4">
         <f>J19*1000/3.6328</f>
-        <v>4547.4565073772301</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>9</v>
@@ -1951,12 +1952,10 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
-      <c r="J20" s="4">
-        <v>16.52</v>
-      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4">
         <f>J20*1000/3.6328</f>
-        <v>4547.4565073772301</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>10</v>
@@ -1966,12 +1965,10 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I21" s="2"/>
-      <c r="J21" s="4">
-        <v>16.52</v>
-      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4">
         <f>J21*1000/0.7593</f>
-        <v>21756.881338074541</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>12</v>
@@ -1982,11 +1979,11 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
       <c r="J22" s="4">
-        <v>16.52</v>
+        <v>132.02000000000001</v>
       </c>
       <c r="K22" s="4">
         <f>J22*1000/0.7593</f>
-        <v>21756.881338074541</v>
+        <v>173870.67035427366</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>41</v>
@@ -2003,7 +2000,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="4">
         <f>((J19+J20+J21+J22)-(J25+J26+J27+J28))*0.94</f>
-        <v>14.279812923092123</v>
+        <v>42.069051916238656</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>47</v>
@@ -2018,7 +2015,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="4">
         <f>((J19+J20+J21+J22)-(J25+J26+J27+J28))*0.06</f>
-        <v>0.91147742062290149</v>
+        <v>2.6852586329514039</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>48</v>
@@ -2030,7 +2027,7 @@
       </c>
       <c r="J25" s="4">
         <f>K19*3.194/1000</f>
-        <v>14.524576084562872</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
@@ -2045,7 +2042,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="4">
         <f>K20*3.194/1000</f>
-        <v>14.524576084562872</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
@@ -2060,7 +2057,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="4">
         <f>K21*0.5019/1000</f>
-        <v>10.919778743579613</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
@@ -2075,7 +2072,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="4">
         <f>K22*0.5019/1000</f>
-        <v>10.919778743579613</v>
+        <v>87.265689450809944</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
@@ -2088,17 +2085,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2267,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N15"/>
+  <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,12 +2349,10 @@
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4">
-        <v>21.04</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4">
         <f>J3*1000/1.9509</f>
-        <v>10784.76600543339</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
@@ -2380,12 +2375,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="4">
-        <v>21.03</v>
-      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4">
         <f>J4*1000/1.9509</f>
-        <v>10779.640166077195</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>10</v>
@@ -2407,11 +2400,11 @@
       <c r="G5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="4">
-        <v>21.03</v>
+        <v>52.28</v>
       </c>
       <c r="K5" s="4">
         <f>J5*1000/0.7332</f>
-        <v>28682.487725040919</v>
+        <v>71303.873431533008</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>12</v>
@@ -2442,7 +2435,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="4">
         <f>((J3+J4+J5)-(J8+J9+J10))*0.95</f>
-        <v>13.573093803017516</v>
+        <v>15.667956628477901</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>47</v>
@@ -2470,7 +2463,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="4">
         <f>((J3+J4+J5)-(J8+J9+J10))*0.05</f>
-        <v>0.71437335805355362</v>
+        <v>0.82462929623567904</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>48</v>
@@ -2495,7 +2488,7 @@
       </c>
       <c r="J8" s="4">
         <f>$K$3*1.596/1000</f>
-        <v>17.212486544671691</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
@@ -2521,7 +2514,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="4">
         <f>$K$4*1.596/1000</f>
-        <v>17.204305705059202</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
@@ -2547,7 +2540,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="4">
         <f>$K$5*0.5019/1000</f>
-        <v>14.395740589198038</v>
+        <v>35.787414075286421</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
@@ -2593,12 +2586,9 @@
       <c r="G12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -2616,12 +2606,22 @@
       <c r="G13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="I13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -2637,6 +2637,19 @@
       <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="K14" s="4">
+        <f>J14*1000/9.8878</f>
+        <v>3480.0461174376501</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -2652,9 +2665,159 @@
       <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="I15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="4">
+        <f>($J$14-$J$17-$J$18-$J$19)*0.6</f>
+        <v>2.8209253827949596</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="4">
+        <f>($J$14-$J$17-$J$18-$J$19)*0.4</f>
+        <v>1.8806169218633066</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4">
+        <f>$K$14*1.9509/1000*2</f>
+        <v>13.578443941018223</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+      <c r="J18" s="4">
+        <f>$K$14*1.9509/1000*2</f>
+        <v>13.578443941018223</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+      <c r="J19" s="4">
+        <f>$K$14*0.7332/1000</f>
+        <v>2.5515698133052847</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="4">
+        <f>((J17+J18+J19)-(J22+J23+J24))*0.95</f>
+        <v>5.4579477285139264</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="4">
+        <f>((J17+J18+J19)-(J22+J23+J24))*0.05</f>
+        <v>0.28726040676389086</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="4">
+        <f>$K$14*1.596/1000*2</f>
+        <v>11.10830720686098</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="4">
+        <f>$K$14*1.596/1000*2</f>
+        <v>11.10830720686098</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+      <c r="J24" s="4">
+        <f>$K$14*0.5019/1000</f>
+        <v>1.7466351463419567</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I6:L6"/>
@@ -2670,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N17"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,11 +2905,11 @@
         <v>33</v>
       </c>
       <c r="C3" s="3">
-        <v>44.32</v>
+        <v>111.66</v>
       </c>
       <c r="D3" s="4">
         <f>C3*1000/21.9</f>
-        <v>2023.744292237443</v>
+        <v>5098.6301369863013</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2754,12 +2917,10 @@
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2">
-        <v>20</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="4">
         <f>J3*1000/5.4304</f>
-        <v>3682.9699469652328</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
@@ -2776,18 +2937,16 @@
       <c r="E4" s="12"/>
       <c r="F4" s="4">
         <f>C3-C5</f>
-        <v>18.966531506849314</v>
+        <v>47.784361643835616</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>16.32</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="4">
         <f>J4*1000/0.8</f>
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>62</v>
@@ -2801,7 +2960,7 @@
       </c>
       <c r="C5" s="4">
         <f>D3*12.528/1000</f>
-        <v>25.353468493150686</v>
+        <v>63.87563835616438</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2809,11 +2968,11 @@
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
-        <v>16.32</v>
+        <v>44.21</v>
       </c>
       <c r="K5" s="4">
         <f>J5*1000/0.8</f>
-        <v>20400</v>
+        <v>55262.5</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>12</v>
@@ -2830,7 +2989,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="4">
         <f>C5-C7</f>
-        <v>9.2578206392694078</v>
+        <v>23.32419342465753</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>64</v>
@@ -2844,7 +3003,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="4">
         <f>((J3+J4+J5)-(J8+J9+J10))*0.945</f>
-        <v>14.694125509251618</v>
+        <v>15.567694931249999</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>47</v>
@@ -2856,7 +3015,7 @@
       </c>
       <c r="C7" s="4">
         <f>D3*7.9534/1000</f>
-        <v>16.095647853881278</v>
+        <v>40.55144493150685</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2870,7 +3029,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="4">
         <f>((J3+J4+J5)-(J8+J9+J10))*0.055</f>
-        <v>0.85521365397760751</v>
+        <v>0.90605631874999992</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>48</v>
@@ -2885,7 +3044,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="4">
         <f>($C$7-$C$10-$C$11-$C$12)*0.6</f>
-        <v>1.1207495890410963</v>
+        <v>2.8236213698630159</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>39</v>
@@ -2895,7 +3054,7 @@
       </c>
       <c r="J8" s="11">
         <f>$K$3*4.5108/1000</f>
-        <v>16.613140836770771</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
@@ -2915,7 +3074,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="4">
         <f>($C$7-$C$10-$C$11-$C$12)*0.4</f>
-        <v>0.74716639269406426</v>
+        <v>1.882414246575344</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>40</v>
@@ -2923,7 +3082,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="4">
         <f>$K$4*0.5019/1000</f>
-        <v>10.238760000000001</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
@@ -2940,7 +3099,7 @@
       </c>
       <c r="C10" s="4">
         <f>$D$3*5.4304/1000</f>
-        <v>10.989741004566209</v>
+        <v>27.687601095890408</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -2951,7 +3110,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="4">
         <f>$K$5*0.5019/1000</f>
-        <v>10.238760000000001</v>
+        <v>27.736248750000001</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
@@ -2966,7 +3125,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="4">
         <f>$D$3*0.8/1000</f>
-        <v>1.6189954337899544</v>
+        <v>4.0789041095890415</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -2985,7 +3144,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="4">
         <f>$D$3*0.8/1000</f>
-        <v>1.6189954337899544</v>
+        <v>4.0789041095890415</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -2993,12 +3152,14 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="I12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -3009,17 +3170,27 @@
       <c r="E13" s="16"/>
       <c r="F13" s="4">
         <f>((C10+C11+C12)-(C15+C16+C17))*0.945</f>
-        <v>2.8988740602739709</v>
+        <v>7.3034358657534222</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="I13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
@@ -3030,11 +3201,24 @@
       <c r="E14" s="16"/>
       <c r="F14" s="4">
         <f>((C10+C11+C12)-(C15+C16+C17))*0.055</f>
-        <v>0.1687175378995433</v>
+        <v>0.42506769589041082</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="K14" s="4">
+        <f>J14*1000/12.528</f>
+        <v>1165.3895274584929</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -3042,7 +3226,7 @@
       </c>
       <c r="C15" s="11">
         <f>$D$3*4.5108/1000</f>
-        <v>9.1287057534246578</v>
+        <v>22.998900821917807</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -3051,13 +3235,26 @@
       <c r="F15" s="2"/>
       <c r="G15" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="4">
+        <f>J14-J16</f>
+        <v>5.3311909323116211</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="4">
         <f>$D$3*0.5019/1000</f>
-        <v>1.0157172602739726</v>
+        <v>2.5590024657534247</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -3067,12 +3264,23 @@
       <c r="G16" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4">
+        <f>K14*7.9534/1000</f>
+        <v>9.2688090676883785</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="4">
         <f>$D$3*0.5019/1000</f>
-        <v>1.0157172602739726</v>
+        <v>2.5590024657534247</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -3082,17 +3290,168 @@
       <c r="G17" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="I17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="4">
+        <f>($J$16-$J$19-$J$20-$J$21)*0.6</f>
+        <v>0.64539272030651418</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="4">
+        <f>($J$16-$J$19-$J$20-$J$21)*0.4</f>
+        <v>0.43026181353767612</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <f>$K$14*5.4304/1000</f>
+        <v>6.3285312899105994</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="4">
+        <f>$K$14*0.8/1000</f>
+        <v>0.9323116219667944</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+      <c r="J21" s="4">
+        <f>$K$14*0.8/1000</f>
+        <v>0.9323116219667944</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="4">
+        <f>((J19+J20+J21)-(J24+J25+J26))*0.945</f>
+        <v>1.669340086206897</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="4">
+        <f>((J19+J20+J21)-(J24+J25+J26))*0.055</f>
+        <v>9.7157359514687139E-2</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="11">
+        <f>$K$14*4.5108/1000</f>
+        <v>5.2568390804597689</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="4">
+        <f>$K$14*0.5019/1000</f>
+        <v>0.58490900383141764</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+      <c r="J26" s="4">
+        <f>$K$14*0.5019/1000</f>
+        <v>0.58490900383141764</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
